--- a/banks_top20_valid.xlsx
+++ b/banks_top20_valid.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="162">
   <si>
     <t>№</t>
   </si>
@@ -204,6 +204,9 @@
     <t>usd</t>
   </si>
   <si>
+    <t>0.35</t>
+  </si>
+  <si>
     <t>0.20</t>
   </si>
   <si>
@@ -379,6 +382,129 @@
   </si>
   <si>
     <t>Депозит "Строковий" (без поповнення та без дострокового розірвання), % в кінці строку</t>
+  </si>
+  <si>
+    <t>Прокредит Банк</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>0.75</t>
+  </si>
+  <si>
+    <t>Південний</t>
+  </si>
+  <si>
+    <t>14.75</t>
+  </si>
+  <si>
+    <t>1.45</t>
+  </si>
+  <si>
+    <t>Прибутковий плюс</t>
+  </si>
+  <si>
+    <t>Кредобанк</t>
+  </si>
+  <si>
+    <t>Крафтовий</t>
+  </si>
+  <si>
+    <t>Акордбанк</t>
+  </si>
+  <si>
+    <t>16.25</t>
+  </si>
+  <si>
+    <t>16.55</t>
+  </si>
+  <si>
+    <t>17.17</t>
+  </si>
+  <si>
+    <t>Нові гроші</t>
+  </si>
+  <si>
+    <t>Максимальний дохід</t>
+  </si>
+  <si>
+    <t>Банк Кредит Дніпро</t>
+  </si>
+  <si>
+    <t>14.50</t>
+  </si>
+  <si>
+    <t>17.00</t>
+  </si>
+  <si>
+    <t>Акція по депозиту «Надійний»</t>
+  </si>
+  <si>
+    <t>Депозит Надійний</t>
+  </si>
+  <si>
+    <t>Банк Львів</t>
+  </si>
+  <si>
+    <t>Знайомство</t>
+  </si>
+  <si>
+    <t>Ідея Банк</t>
+  </si>
+  <si>
+    <t>17.25</t>
+  </si>
+  <si>
+    <t>На старт</t>
+  </si>
+  <si>
+    <t>Сміливий</t>
+  </si>
+  <si>
+    <t>Радабанк</t>
+  </si>
+  <si>
+    <t>15.75</t>
+  </si>
+  <si>
+    <t>17.50</t>
+  </si>
+  <si>
+    <t>2.35</t>
+  </si>
+  <si>
+    <t>1.40</t>
+  </si>
+  <si>
+    <t>1.60</t>
+  </si>
+  <si>
+    <t>1.30</t>
+  </si>
+  <si>
+    <t>Максимальний</t>
+  </si>
+  <si>
+    <t>Комінбанк</t>
+  </si>
+  <si>
+    <t>15.30</t>
+  </si>
+  <si>
+    <t>14.70</t>
+  </si>
+  <si>
+    <t>1.10</t>
+  </si>
+  <si>
+    <t>ВСТ Банк (Банк Восток)</t>
+  </si>
+  <si>
+    <t>Особливий</t>
+  </si>
+  <si>
+    <t>Простий</t>
   </si>
 </sst>
 </file>
@@ -776,11 +902,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T59"/>
+  <dimension ref="A1:T61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S31" sqref="S31"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S61" sqref="S61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -893,7 +1019,7 @@
         <v>57</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="N2" s="5">
         <v>13</v>
@@ -901,13 +1027,13 @@
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
       <c r="Q2" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R2" s="5">
         <v>13</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T2" s="5">
         <v>12.5</v>
@@ -943,7 +1069,7 @@
         <v>57</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="N3" s="5">
         <v>0.3</v>
@@ -951,13 +1077,13 @@
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
       <c r="Q3" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R3" s="5">
         <v>0.2</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T3" s="5">
         <v>1.5</v>
@@ -972,19 +1098,19 @@
         <v>52</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G4" t="s">
         <v>54</v>
       </c>
       <c r="H4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I4" t="s">
         <v>54</v>
       </c>
       <c r="J4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K4" t="s">
         <v>56</v>
@@ -993,7 +1119,7 @@
         <v>57</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="N4" s="5">
         <v>0.1</v>
@@ -1001,13 +1127,13 @@
       <c r="O4" s="5"/>
       <c r="P4" s="5"/>
       <c r="Q4" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R4" s="5">
         <v>0.05</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T4" s="5">
         <v>0.5</v>
@@ -1027,19 +1153,19 @@
         <v>46</v>
       </c>
       <c r="E5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J5" t="s">
         <v>55</v>
@@ -1051,25 +1177,25 @@
         <v>57</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="N5" s="5">
         <v>14</v>
       </c>
       <c r="O5" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P5" s="5">
         <v>6.5</v>
       </c>
       <c r="Q5" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R5" s="5">
         <v>6.5</v>
       </c>
       <c r="S5" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T5" s="5">
         <v>2.5</v>
@@ -1081,19 +1207,19 @@
         <v>46</v>
       </c>
       <c r="E6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J6" t="s">
         <v>60</v>
@@ -1105,25 +1231,25 @@
         <v>57</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="N6" s="5">
         <v>0.01</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P6" s="5">
         <v>0.01</v>
       </c>
       <c r="Q6" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R6" s="5">
         <v>0.01</v>
       </c>
       <c r="S6" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T6" s="5">
         <v>0.01</v>
@@ -1135,22 +1261,22 @@
         <v>46</v>
       </c>
       <c r="E7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K7" t="s">
         <v>56</v>
@@ -1159,25 +1285,25 @@
         <v>57</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="N7" s="5">
         <v>0.01</v>
       </c>
       <c r="O7" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P7" s="5">
         <v>0.01</v>
       </c>
       <c r="Q7" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R7" s="5">
         <v>0.01</v>
       </c>
       <c r="S7" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T7" s="5">
         <v>0.01</v>
@@ -1197,19 +1323,19 @@
         <v>272</v>
       </c>
       <c r="E8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G8" t="s">
         <v>54</v>
       </c>
       <c r="H8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J8" t="s">
         <v>55</v>
@@ -1221,7 +1347,7 @@
         <v>57</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N8" s="5">
         <v>12.25</v>
@@ -1229,13 +1355,13 @@
       <c r="O8" s="5"/>
       <c r="P8" s="5"/>
       <c r="Q8" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R8" s="5">
         <v>12.25</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T8" s="5">
         <v>12</v>
@@ -1247,19 +1373,19 @@
         <v>272</v>
       </c>
       <c r="E9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G9" t="s">
         <v>54</v>
       </c>
       <c r="H9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J9" t="s">
         <v>60</v>
@@ -1271,7 +1397,7 @@
         <v>57</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N9" s="5">
         <v>1.5</v>
@@ -1279,13 +1405,13 @@
       <c r="O9" s="5"/>
       <c r="P9" s="5"/>
       <c r="Q9" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R9" s="5">
         <v>1.25</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T9" s="5">
         <v>1</v>
@@ -1297,22 +1423,22 @@
         <v>272</v>
       </c>
       <c r="E10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G10" t="s">
         <v>54</v>
       </c>
       <c r="H10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K10" t="s">
         <v>56</v>
@@ -1321,7 +1447,7 @@
         <v>57</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N10" s="5">
         <v>0.01</v>
@@ -1329,13 +1455,13 @@
       <c r="O10" s="5"/>
       <c r="P10" s="5"/>
       <c r="Q10" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R10" s="5">
         <v>0.01</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T10" s="5">
         <v>0.01</v>
@@ -1355,7 +1481,7 @@
         <v>2</v>
       </c>
       <c r="E11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F11" t="s">
         <v>53</v>
@@ -1367,7 +1493,7 @@
         <v>53</v>
       </c>
       <c r="I11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J11" t="s">
         <v>55</v>
@@ -1379,25 +1505,25 @@
         <v>57</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N11" s="5">
         <v>13</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P11" s="5">
         <v>13</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="R11" s="5">
         <v>13</v>
       </c>
       <c r="S11" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="T11" s="5">
         <v>12.5</v>
@@ -1409,7 +1535,7 @@
         <v>2</v>
       </c>
       <c r="E12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F12" t="s">
         <v>59</v>
@@ -1421,7 +1547,7 @@
         <v>59</v>
       </c>
       <c r="I12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J12" t="s">
         <v>60</v>
@@ -1433,25 +1559,25 @@
         <v>57</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N12" s="5">
         <v>0.3</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P12" s="5">
         <v>0.3</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="R12" s="5">
         <v>0.3</v>
       </c>
       <c r="S12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="T12" s="5">
         <v>0.15</v>
@@ -1463,22 +1589,22 @@
         <v>2</v>
       </c>
       <c r="E13" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F13" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G13" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H13" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I13" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K13" t="s">
         <v>56</v>
@@ -1487,25 +1613,25 @@
         <v>57</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N13" s="5">
         <v>0.01</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P13" s="5">
         <v>0.01</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="R13" s="5">
         <v>0.01</v>
       </c>
       <c r="S13" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="T13" s="5">
         <v>0.01</v>
@@ -1525,7 +1651,7 @@
         <v>115</v>
       </c>
       <c r="E14" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F14" t="s">
         <v>53</v>
@@ -1549,25 +1675,25 @@
         <v>57</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N14" s="5">
         <v>12</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P14" s="5">
         <v>12</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="R14" s="5">
         <v>12</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="T14" s="5">
         <v>12</v>
@@ -1579,19 +1705,19 @@
         <v>115</v>
       </c>
       <c r="E15" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F15" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G15" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H15" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I15" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J15" t="s">
         <v>60</v>
@@ -1603,25 +1729,25 @@
         <v>57</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N15" s="5">
         <v>1</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P15" s="5">
         <v>0.8</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="R15" s="5">
         <v>0.6</v>
       </c>
       <c r="S15" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="T15" s="5">
         <v>0.5</v>
@@ -1633,7 +1759,7 @@
         <v>115</v>
       </c>
       <c r="E16" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F16" t="s">
         <v>59</v>
@@ -1648,7 +1774,7 @@
         <v>59</v>
       </c>
       <c r="J16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K16" t="s">
         <v>56</v>
@@ -1657,25 +1783,25 @@
         <v>57</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N16" s="5">
         <v>0.3</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P16" s="5">
         <v>0.3</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="R16" s="5">
         <v>0.3</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="T16" s="5">
         <v>0.3</v>
@@ -1695,19 +1821,19 @@
         <v>242</v>
       </c>
       <c r="E17" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F17" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G17" t="s">
         <v>54</v>
       </c>
       <c r="H17" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I17" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J17" t="s">
         <v>55</v>
@@ -1719,7 +1845,7 @@
         <v>57</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="N17" s="5">
         <v>16</v>
@@ -1727,13 +1853,13 @@
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
       <c r="Q17" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="R17" s="5">
         <v>15.7</v>
       </c>
       <c r="S17" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="T17" s="5">
         <v>15.5</v>
@@ -1745,19 +1871,19 @@
         <v>242</v>
       </c>
       <c r="E18" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F18" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G18" t="s">
         <v>54</v>
       </c>
       <c r="H18" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I18" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J18" t="s">
         <v>60</v>
@@ -1769,7 +1895,7 @@
         <v>57</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="N18" s="5">
         <v>1.7</v>
@@ -1777,13 +1903,13 @@
       <c r="O18" s="5"/>
       <c r="P18" s="5"/>
       <c r="Q18" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="R18" s="5">
         <v>1.2</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="T18" s="5">
         <v>0.1</v>
@@ -1795,23 +1921,23 @@
         <v>242</v>
       </c>
       <c r="E19" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F19" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G19" t="s">
         <v>54</v>
       </c>
       <c r="H19" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I19" t="s">
+        <v>65</v>
+      </c>
+      <c r="J19" t="s">
         <v>64</v>
       </c>
-      <c r="J19" t="s">
-        <v>63</v>
-      </c>
       <c r="K19" t="s">
         <v>56</v>
       </c>
@@ -1819,7 +1945,7 @@
         <v>57</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="N19" s="5">
         <v>0.7</v>
@@ -1827,13 +1953,13 @@
       <c r="O19" s="5"/>
       <c r="P19" s="5"/>
       <c r="Q19" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="R19" s="5">
         <v>0.5</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="T19" s="5">
         <v>0.1</v>
@@ -1853,19 +1979,19 @@
         <v>36</v>
       </c>
       <c r="E20" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F20" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G20" t="s">
         <v>54</v>
       </c>
       <c r="H20" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I20" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J20" t="s">
         <v>55</v>
@@ -1877,7 +2003,7 @@
         <v>57</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N20" s="5">
         <v>6.5</v>
@@ -1885,13 +2011,13 @@
       <c r="O20" s="5"/>
       <c r="P20" s="5"/>
       <c r="Q20" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="R20" s="5">
         <v>6.5</v>
       </c>
       <c r="S20" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="T20" s="5">
         <v>5.5</v>
@@ -1903,19 +2029,19 @@
         <v>36</v>
       </c>
       <c r="E21" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F21" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G21" t="s">
         <v>54</v>
       </c>
       <c r="H21" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I21" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J21" t="s">
         <v>60</v>
@@ -1927,7 +2053,7 @@
         <v>57</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N21" s="5">
         <v>0.01</v>
@@ -1935,13 +2061,13 @@
       <c r="O21" s="5"/>
       <c r="P21" s="5"/>
       <c r="Q21" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="R21" s="5">
         <v>0.01</v>
       </c>
       <c r="S21" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="T21" s="5">
         <v>1.5</v>
@@ -1953,22 +2079,22 @@
         <v>36</v>
       </c>
       <c r="E22" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F22" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G22" t="s">
         <v>54</v>
       </c>
       <c r="H22" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I22" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J22" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K22" t="s">
         <v>56</v>
@@ -1977,7 +2103,7 @@
         <v>57</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N22" s="5">
         <v>0.01</v>
@@ -1985,13 +2111,13 @@
       <c r="O22" s="5"/>
       <c r="P22" s="5"/>
       <c r="Q22" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="R22" s="5">
         <v>0.01</v>
       </c>
       <c r="S22" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="T22" s="5">
         <v>0.25</v>
@@ -2011,19 +2137,19 @@
         <v>274</v>
       </c>
       <c r="E23" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F23" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G23" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H23" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I23" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J23" t="s">
         <v>55</v>
@@ -2035,25 +2161,25 @@
         <v>57</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="N23" s="5">
         <v>12.75</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="P23" s="5">
         <v>12.75</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="R23" s="5">
         <v>12.25</v>
       </c>
       <c r="S23" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="T23" s="5">
         <v>1.75</v>
@@ -2065,19 +2191,19 @@
         <v>274</v>
       </c>
       <c r="E24" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F24" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G24" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H24" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I24" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J24" t="s">
         <v>60</v>
@@ -2089,25 +2215,25 @@
         <v>57</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="N24" s="5">
         <v>1.25</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="P24" s="5">
         <v>1.25</v>
       </c>
       <c r="Q24" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="R24" s="5">
         <v>0.4</v>
       </c>
       <c r="S24" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="T24" s="5">
         <v>0.35</v>
@@ -2119,22 +2245,22 @@
         <v>274</v>
       </c>
       <c r="E25" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F25" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G25" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H25" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I25" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J25" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K25" t="s">
         <v>56</v>
@@ -2143,25 +2269,25 @@
         <v>57</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="N25" s="5">
         <v>0.01</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P25" s="5">
         <v>0.01</v>
       </c>
       <c r="Q25" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="R25" s="5">
         <v>0.01</v>
       </c>
       <c r="S25" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="T25" s="5">
         <v>0.01</v>
@@ -2181,19 +2307,19 @@
         <v>296</v>
       </c>
       <c r="E26" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F26" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G26" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H26" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I26" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J26" t="s">
         <v>55</v>
@@ -2205,25 +2331,25 @@
         <v>57</v>
       </c>
       <c r="M26" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N26" s="5">
         <v>6.5</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P26" s="5">
         <v>6.5</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R26" s="5">
         <v>10</v>
       </c>
       <c r="S26" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="T26" s="5">
         <v>9.2899999999999991</v>
@@ -2235,19 +2361,19 @@
         <v>296</v>
       </c>
       <c r="E27" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F27" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G27" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H27" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I27" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J27" t="s">
         <v>60</v>
@@ -2259,25 +2385,25 @@
         <v>57</v>
       </c>
       <c r="M27" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N27" s="5">
         <v>0.1</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P27" s="5">
         <v>0.1</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R27" s="5">
         <v>0.25</v>
       </c>
       <c r="S27" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="T27" s="5">
         <v>0.25</v>
@@ -2289,22 +2415,22 @@
         <v>296</v>
       </c>
       <c r="E28" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F28" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G28" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H28" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I28" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J28" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K28" t="s">
         <v>56</v>
@@ -2313,25 +2439,25 @@
         <v>57</v>
       </c>
       <c r="M28" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N28" s="5">
         <v>0.01</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P28" s="5">
         <v>0.01</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R28" s="5">
         <v>0.25</v>
       </c>
       <c r="S28" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="T28" s="5">
         <v>0.25</v>
@@ -2351,19 +2477,19 @@
         <v>62</v>
       </c>
       <c r="E29" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F29" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G29" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H29" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I29" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J29" t="s">
         <v>55</v>
@@ -2375,25 +2501,25 @@
         <v>57</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N29" s="5">
         <v>15.75</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="P29" s="5">
         <v>15.5</v>
       </c>
       <c r="Q29" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="R29">
         <v>15.25</v>
       </c>
       <c r="S29" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="T29">
         <v>14.75</v>
@@ -2405,19 +2531,19 @@
         <v>62</v>
       </c>
       <c r="E30" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F30" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G30" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H30" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I30" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="J30" t="s">
         <v>60</v>
@@ -2429,25 +2555,25 @@
         <v>57</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N30" s="5">
         <v>2.5</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="P30" s="5">
         <v>2.25</v>
       </c>
       <c r="Q30" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="R30" s="5">
         <v>2</v>
       </c>
       <c r="S30" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="T30">
         <v>1.75</v>
@@ -2459,22 +2585,22 @@
         <v>62</v>
       </c>
       <c r="E31" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F31" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G31" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H31" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I31" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J31" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K31" t="s">
         <v>56</v>
@@ -2483,25 +2609,25 @@
         <v>57</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N31" s="5">
         <v>1.5</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="P31" s="5">
         <v>1.25</v>
       </c>
       <c r="Q31" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="R31" s="5">
         <v>1</v>
       </c>
       <c r="S31" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="T31">
         <v>0.45</v>
@@ -2517,33 +2643,153 @@
       <c r="C32" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="N32" s="5"/>
+      <c r="D32" s="3">
+        <v>298</v>
+      </c>
+      <c r="E32" t="s">
+        <v>121</v>
+      </c>
+      <c r="F32" t="s">
+        <v>53</v>
+      </c>
+      <c r="G32" t="s">
+        <v>54</v>
+      </c>
+      <c r="H32" t="s">
+        <v>122</v>
+      </c>
+      <c r="I32" t="s">
+        <v>122</v>
+      </c>
+      <c r="J32" t="s">
+        <v>55</v>
+      </c>
+      <c r="K32" t="s">
+        <v>56</v>
+      </c>
+      <c r="L32" t="s">
+        <v>57</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="N32" s="5">
+        <v>13</v>
+      </c>
       <c r="O32" s="5"/>
       <c r="P32" s="5"/>
-      <c r="Q32" s="5"/>
-      <c r="R32" s="5"/>
-      <c r="S32" s="5"/>
-      <c r="T32" s="5"/>
+      <c r="Q32" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="R32" s="5">
+        <v>15</v>
+      </c>
+      <c r="S32" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="T32" s="5">
+        <v>15</v>
+      </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.35">
       <c r="C33" s="2"/>
-      <c r="N33" s="5"/>
+      <c r="D33" s="3">
+        <v>298</v>
+      </c>
+      <c r="E33" t="s">
+        <v>121</v>
+      </c>
+      <c r="F33" t="s">
+        <v>86</v>
+      </c>
+      <c r="G33" t="s">
+        <v>54</v>
+      </c>
+      <c r="H33" t="s">
+        <v>123</v>
+      </c>
+      <c r="I33" t="s">
+        <v>123</v>
+      </c>
+      <c r="J33" t="s">
+        <v>60</v>
+      </c>
+      <c r="K33" t="s">
+        <v>56</v>
+      </c>
+      <c r="L33" t="s">
+        <v>57</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="N33" s="5">
+        <v>0.8</v>
+      </c>
       <c r="O33" s="5"/>
       <c r="P33" s="5"/>
-      <c r="Q33" s="5"/>
-      <c r="R33" s="5"/>
-      <c r="S33" s="5"/>
-      <c r="T33" s="5"/>
+      <c r="Q33" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="R33">
+        <v>0.75</v>
+      </c>
+      <c r="S33" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="T33">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.35">
       <c r="C34" s="2"/>
-      <c r="N34" s="5"/>
+      <c r="D34" s="3">
+        <v>298</v>
+      </c>
+      <c r="E34" t="s">
+        <v>121</v>
+      </c>
+      <c r="F34" t="s">
+        <v>65</v>
+      </c>
+      <c r="G34" t="s">
+        <v>54</v>
+      </c>
+      <c r="H34" t="s">
+        <v>62</v>
+      </c>
+      <c r="I34" t="s">
+        <v>62</v>
+      </c>
+      <c r="J34" t="s">
+        <v>64</v>
+      </c>
+      <c r="K34" t="s">
+        <v>56</v>
+      </c>
+      <c r="L34" t="s">
+        <v>57</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="N34" s="5">
+        <v>0.1</v>
+      </c>
       <c r="O34" s="5"/>
       <c r="P34" s="5"/>
-      <c r="Q34" s="5"/>
-      <c r="R34" s="5"/>
-      <c r="S34" s="5"/>
-      <c r="T34" s="5"/>
+      <c r="Q34" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="R34" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="S34" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="T34" s="5">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A35">
@@ -2555,33 +2801,138 @@
       <c r="C35" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="D35" s="3">
+        <v>106</v>
+      </c>
+      <c r="E35" t="s">
+        <v>124</v>
+      </c>
+      <c r="F35" t="s">
+        <v>54</v>
+      </c>
+      <c r="G35" t="s">
+        <v>54</v>
+      </c>
+      <c r="H35" t="s">
+        <v>122</v>
+      </c>
+      <c r="I35" t="s">
+        <v>125</v>
+      </c>
+      <c r="J35" t="s">
+        <v>55</v>
+      </c>
+      <c r="K35" t="s">
+        <v>56</v>
+      </c>
+      <c r="L35" t="s">
+        <v>57</v>
+      </c>
       <c r="N35" s="5"/>
       <c r="O35" s="5"/>
       <c r="P35" s="5"/>
-      <c r="Q35" s="5"/>
-      <c r="R35" s="5"/>
-      <c r="S35" s="5"/>
-      <c r="T35" s="5"/>
+      <c r="Q35" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="R35" s="5">
+        <v>14.75</v>
+      </c>
+      <c r="S35" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="T35" s="5">
+        <v>14.5</v>
+      </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.35">
       <c r="C36" s="2"/>
+      <c r="D36" s="3">
+        <v>106</v>
+      </c>
+      <c r="E36" t="s">
+        <v>124</v>
+      </c>
+      <c r="F36" t="s">
+        <v>54</v>
+      </c>
+      <c r="G36" t="s">
+        <v>54</v>
+      </c>
+      <c r="H36" t="s">
+        <v>78</v>
+      </c>
+      <c r="I36" t="s">
+        <v>126</v>
+      </c>
+      <c r="J36" t="s">
+        <v>60</v>
+      </c>
+      <c r="K36" t="s">
+        <v>56</v>
+      </c>
+      <c r="L36" t="s">
+        <v>57</v>
+      </c>
       <c r="N36" s="5"/>
       <c r="O36" s="5"/>
       <c r="P36" s="5"/>
-      <c r="Q36" s="5"/>
-      <c r="R36" s="5"/>
-      <c r="S36" s="5"/>
-      <c r="T36" s="5"/>
+      <c r="Q36" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="R36" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="S36" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="T36" s="5">
+        <v>1.45</v>
+      </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.35">
       <c r="C37" s="2"/>
+      <c r="D37" s="3">
+        <v>106</v>
+      </c>
+      <c r="E37" t="s">
+        <v>124</v>
+      </c>
+      <c r="F37" t="s">
+        <v>54</v>
+      </c>
+      <c r="G37" t="s">
+        <v>54</v>
+      </c>
+      <c r="H37" t="s">
+        <v>78</v>
+      </c>
+      <c r="I37" t="s">
+        <v>126</v>
+      </c>
+      <c r="J37" t="s">
+        <v>64</v>
+      </c>
+      <c r="K37" t="s">
+        <v>56</v>
+      </c>
+      <c r="L37" t="s">
+        <v>57</v>
+      </c>
       <c r="N37" s="5"/>
       <c r="O37" s="5"/>
       <c r="P37" s="5"/>
-      <c r="Q37" s="5"/>
-      <c r="R37" s="5"/>
-      <c r="S37" s="5"/>
-      <c r="T37" s="5"/>
+      <c r="Q37" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="R37" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="S37" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="T37" s="5">
+        <v>1.45</v>
+      </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A38">
@@ -2593,31 +2944,143 @@
       <c r="C38" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="N38" s="5"/>
+      <c r="D38" s="3">
+        <v>88</v>
+      </c>
+      <c r="E38" t="s">
+        <v>128</v>
+      </c>
+      <c r="F38" t="s">
+        <v>77</v>
+      </c>
+      <c r="G38" t="s">
+        <v>54</v>
+      </c>
+      <c r="H38" t="s">
+        <v>53</v>
+      </c>
+      <c r="I38" t="s">
+        <v>54</v>
+      </c>
+      <c r="J38" t="s">
+        <v>55</v>
+      </c>
+      <c r="K38" t="s">
+        <v>56</v>
+      </c>
+      <c r="L38" t="s">
+        <v>57</v>
+      </c>
+      <c r="M38" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="N38" s="5">
+        <v>12</v>
+      </c>
       <c r="O38" s="5"/>
       <c r="P38" s="5"/>
-      <c r="Q38" s="5"/>
-      <c r="R38" s="5"/>
+      <c r="Q38" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="R38" s="5">
+        <v>13</v>
+      </c>
       <c r="S38" s="5"/>
       <c r="T38" s="5"/>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.35">
       <c r="C39" s="2"/>
-      <c r="N39" s="5"/>
+      <c r="D39" s="3">
+        <v>88</v>
+      </c>
+      <c r="E39" t="s">
+        <v>128</v>
+      </c>
+      <c r="F39" t="s">
+        <v>88</v>
+      </c>
+      <c r="G39" t="s">
+        <v>54</v>
+      </c>
+      <c r="H39" t="s">
+        <v>88</v>
+      </c>
+      <c r="I39" t="s">
+        <v>70</v>
+      </c>
+      <c r="J39" t="s">
+        <v>60</v>
+      </c>
+      <c r="K39" t="s">
+        <v>56</v>
+      </c>
+      <c r="L39" t="s">
+        <v>57</v>
+      </c>
+      <c r="M39" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="N39" s="5">
+        <v>0.5</v>
+      </c>
       <c r="O39" s="5"/>
       <c r="P39" s="5"/>
-      <c r="Q39" s="5"/>
-      <c r="R39" s="5"/>
-      <c r="S39" s="5"/>
-      <c r="T39" s="5"/>
+      <c r="Q39" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="R39" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="S39" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="T39" s="5">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.35">
       <c r="C40" s="2"/>
-      <c r="N40" s="5"/>
+      <c r="D40" s="3">
+        <v>88</v>
+      </c>
+      <c r="E40" t="s">
+        <v>128</v>
+      </c>
+      <c r="F40" t="s">
+        <v>62</v>
+      </c>
+      <c r="G40" t="s">
+        <v>54</v>
+      </c>
+      <c r="H40" t="s">
+        <v>62</v>
+      </c>
+      <c r="I40" t="s">
+        <v>54</v>
+      </c>
+      <c r="J40" t="s">
+        <v>64</v>
+      </c>
+      <c r="K40" t="s">
+        <v>56</v>
+      </c>
+      <c r="L40" t="s">
+        <v>57</v>
+      </c>
+      <c r="M40" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="N40" s="5">
+        <v>0.2</v>
+      </c>
       <c r="O40" s="5"/>
       <c r="P40" s="5"/>
-      <c r="Q40" s="5"/>
-      <c r="R40" s="5"/>
+      <c r="Q40" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="R40" s="5">
+        <v>0.25</v>
+      </c>
       <c r="S40" s="5"/>
       <c r="T40" s="5"/>
     </row>
@@ -2631,33 +3094,153 @@
       <c r="C41" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N41" s="5"/>
+      <c r="D41" s="3">
+        <v>392</v>
+      </c>
+      <c r="E41" t="s">
+        <v>130</v>
+      </c>
+      <c r="F41" t="s">
+        <v>131</v>
+      </c>
+      <c r="G41" t="s">
+        <v>54</v>
+      </c>
+      <c r="H41" t="s">
+        <v>132</v>
+      </c>
+      <c r="I41" t="s">
+        <v>133</v>
+      </c>
+      <c r="J41" t="s">
+        <v>55</v>
+      </c>
+      <c r="K41" t="s">
+        <v>56</v>
+      </c>
+      <c r="L41" t="s">
+        <v>57</v>
+      </c>
+      <c r="M41" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="N41" s="5">
+        <v>16.25</v>
+      </c>
       <c r="O41" s="5"/>
       <c r="P41" s="5"/>
-      <c r="Q41" s="5"/>
-      <c r="R41" s="5"/>
-      <c r="S41" s="5"/>
-      <c r="T41" s="5"/>
+      <c r="Q41" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="R41" s="5">
+        <v>16.55</v>
+      </c>
+      <c r="S41" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="T41" s="5">
+        <v>17.170000000000002</v>
+      </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.35">
       <c r="C42" s="2"/>
-      <c r="N42" s="5"/>
+      <c r="D42" s="3">
+        <v>392</v>
+      </c>
+      <c r="E42" t="s">
+        <v>130</v>
+      </c>
+      <c r="F42" t="s">
+        <v>69</v>
+      </c>
+      <c r="G42" t="s">
+        <v>54</v>
+      </c>
+      <c r="H42" t="s">
+        <v>117</v>
+      </c>
+      <c r="I42" t="s">
+        <v>118</v>
+      </c>
+      <c r="J42" t="s">
+        <v>60</v>
+      </c>
+      <c r="K42" t="s">
+        <v>56</v>
+      </c>
+      <c r="L42" t="s">
+        <v>57</v>
+      </c>
+      <c r="M42" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="N42" s="5">
+        <v>2.25</v>
+      </c>
       <c r="O42" s="5"/>
       <c r="P42" s="5"/>
-      <c r="Q42" s="5"/>
-      <c r="R42" s="5"/>
-      <c r="S42" s="5"/>
-      <c r="T42" s="5"/>
+      <c r="Q42" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="R42" s="5">
+        <v>2</v>
+      </c>
+      <c r="S42" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="T42" s="5">
+        <v>1.75</v>
+      </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.35">
       <c r="C43" s="2"/>
-      <c r="N43" s="5"/>
+      <c r="D43" s="3">
+        <v>392</v>
+      </c>
+      <c r="E43" t="s">
+        <v>130</v>
+      </c>
+      <c r="F43" t="s">
+        <v>118</v>
+      </c>
+      <c r="G43" t="s">
+        <v>54</v>
+      </c>
+      <c r="H43" t="s">
+        <v>117</v>
+      </c>
+      <c r="I43" t="s">
+        <v>116</v>
+      </c>
+      <c r="J43" t="s">
+        <v>64</v>
+      </c>
+      <c r="K43" t="s">
+        <v>56</v>
+      </c>
+      <c r="L43" t="s">
+        <v>57</v>
+      </c>
+      <c r="M43" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="N43" s="5">
+        <v>1.75</v>
+      </c>
       <c r="O43" s="5"/>
       <c r="P43" s="5"/>
-      <c r="Q43" s="5"/>
-      <c r="R43" s="5"/>
-      <c r="S43" s="5"/>
-      <c r="T43" s="5"/>
+      <c r="Q43" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="R43" s="5">
+        <v>2</v>
+      </c>
+      <c r="S43" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="T43" s="5">
+        <v>2.25</v>
+      </c>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A44">
@@ -2669,33 +3252,153 @@
       <c r="C44" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N44" s="5"/>
+      <c r="D44" s="3">
+        <v>270</v>
+      </c>
+      <c r="E44" t="s">
+        <v>136</v>
+      </c>
+      <c r="F44" t="s">
+        <v>137</v>
+      </c>
+      <c r="G44" t="s">
+        <v>54</v>
+      </c>
+      <c r="H44" t="s">
+        <v>138</v>
+      </c>
+      <c r="I44" t="s">
+        <v>91</v>
+      </c>
+      <c r="J44" t="s">
+        <v>55</v>
+      </c>
+      <c r="K44" t="s">
+        <v>56</v>
+      </c>
+      <c r="L44" t="s">
+        <v>57</v>
+      </c>
+      <c r="M44" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="N44" s="5">
+        <v>14.5</v>
+      </c>
       <c r="O44" s="5"/>
       <c r="P44" s="5"/>
-      <c r="Q44" s="5"/>
-      <c r="R44" s="5"/>
-      <c r="S44" s="5"/>
-      <c r="T44" s="5"/>
+      <c r="Q44" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="R44" s="5">
+        <v>16</v>
+      </c>
+      <c r="S44" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="T44" s="5">
+        <v>17</v>
+      </c>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.35">
       <c r="C45" s="2"/>
-      <c r="N45" s="5"/>
+      <c r="D45" s="3">
+        <v>270</v>
+      </c>
+      <c r="E45" t="s">
+        <v>136</v>
+      </c>
+      <c r="F45" t="s">
+        <v>118</v>
+      </c>
+      <c r="G45" t="s">
+        <v>54</v>
+      </c>
+      <c r="H45" t="s">
+        <v>69</v>
+      </c>
+      <c r="I45" t="s">
+        <v>69</v>
+      </c>
+      <c r="J45" t="s">
+        <v>60</v>
+      </c>
+      <c r="K45" t="s">
+        <v>56</v>
+      </c>
+      <c r="L45" t="s">
+        <v>57</v>
+      </c>
+      <c r="M45" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="N45" s="5">
+        <v>1.75</v>
+      </c>
       <c r="O45" s="5"/>
       <c r="P45" s="5"/>
-      <c r="Q45" s="5"/>
-      <c r="R45" s="5"/>
-      <c r="S45" s="5"/>
-      <c r="T45" s="5"/>
+      <c r="Q45" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="R45" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="S45" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="T45" s="5">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.35">
       <c r="C46" s="2"/>
-      <c r="N46" s="5"/>
+      <c r="D46" s="3">
+        <v>270</v>
+      </c>
+      <c r="E46" t="s">
+        <v>136</v>
+      </c>
+      <c r="F46" t="s">
+        <v>70</v>
+      </c>
+      <c r="G46" t="s">
+        <v>54</v>
+      </c>
+      <c r="H46" t="s">
+        <v>70</v>
+      </c>
+      <c r="I46" t="s">
+        <v>70</v>
+      </c>
+      <c r="J46" t="s">
+        <v>64</v>
+      </c>
+      <c r="K46" t="s">
+        <v>56</v>
+      </c>
+      <c r="L46" t="s">
+        <v>57</v>
+      </c>
+      <c r="M46" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="N46" s="5">
+        <v>0.01</v>
+      </c>
       <c r="O46" s="5"/>
       <c r="P46" s="5"/>
-      <c r="Q46" s="5"/>
-      <c r="R46" s="5"/>
-      <c r="S46" s="5"/>
-      <c r="T46" s="5"/>
+      <c r="Q46" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="R46" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="S46" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="T46" s="5">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A47">
@@ -2707,33 +3410,165 @@
       <c r="C47" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N47" s="5"/>
-      <c r="O47" s="5"/>
-      <c r="P47" s="5"/>
-      <c r="Q47" s="5"/>
-      <c r="R47" s="5"/>
-      <c r="S47" s="5"/>
-      <c r="T47" s="5"/>
+      <c r="D47" s="3">
+        <v>91</v>
+      </c>
+      <c r="E47" t="s">
+        <v>141</v>
+      </c>
+      <c r="F47" t="s">
+        <v>93</v>
+      </c>
+      <c r="G47" t="s">
+        <v>93</v>
+      </c>
+      <c r="H47" t="s">
+        <v>122</v>
+      </c>
+      <c r="I47" t="s">
+        <v>138</v>
+      </c>
+      <c r="J47" t="s">
+        <v>55</v>
+      </c>
+      <c r="K47" t="s">
+        <v>56</v>
+      </c>
+      <c r="L47" t="s">
+        <v>57</v>
+      </c>
+      <c r="M47" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="N47" s="5">
+        <v>16.5</v>
+      </c>
+      <c r="O47" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="P47" s="5">
+        <v>16.5</v>
+      </c>
+      <c r="Q47" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="R47" s="5">
+        <v>16</v>
+      </c>
+      <c r="S47" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="T47" s="5">
+        <v>17</v>
+      </c>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.35">
       <c r="C48" s="2"/>
-      <c r="N48" s="5"/>
-      <c r="O48" s="5"/>
-      <c r="P48" s="5"/>
-      <c r="Q48" s="5"/>
-      <c r="R48" s="5"/>
-      <c r="S48" s="5"/>
-      <c r="T48" s="5"/>
+      <c r="D48" s="3">
+        <v>91</v>
+      </c>
+      <c r="E48" t="s">
+        <v>141</v>
+      </c>
+      <c r="F48" t="s">
+        <v>69</v>
+      </c>
+      <c r="G48" t="s">
+        <v>116</v>
+      </c>
+      <c r="H48" t="s">
+        <v>116</v>
+      </c>
+      <c r="I48" t="s">
+        <v>118</v>
+      </c>
+      <c r="J48" t="s">
+        <v>60</v>
+      </c>
+      <c r="K48" t="s">
+        <v>56</v>
+      </c>
+      <c r="L48" t="s">
+        <v>57</v>
+      </c>
+      <c r="M48" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="N48" s="5">
+        <v>2.75</v>
+      </c>
+      <c r="O48" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="P48" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="Q48" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="R48" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="S48" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="T48" s="5">
+        <v>2</v>
+      </c>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.35">
       <c r="C49" s="2"/>
-      <c r="N49" s="5"/>
-      <c r="O49" s="5"/>
-      <c r="P49" s="5"/>
-      <c r="Q49" s="5"/>
-      <c r="R49" s="5"/>
-      <c r="S49" s="5"/>
-      <c r="T49" s="5"/>
+      <c r="D49" s="3">
+        <v>91</v>
+      </c>
+      <c r="E49" t="s">
+        <v>141</v>
+      </c>
+      <c r="F49" t="s">
+        <v>118</v>
+      </c>
+      <c r="G49" t="s">
+        <v>79</v>
+      </c>
+      <c r="H49" t="s">
+        <v>79</v>
+      </c>
+      <c r="I49" t="s">
+        <v>123</v>
+      </c>
+      <c r="J49" t="s">
+        <v>64</v>
+      </c>
+      <c r="K49" t="s">
+        <v>56</v>
+      </c>
+      <c r="L49" t="s">
+        <v>57</v>
+      </c>
+      <c r="M49" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="N49" s="5">
+        <v>2</v>
+      </c>
+      <c r="O49" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="P49" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="Q49" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="R49" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="S49" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="T49" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A50">
@@ -2745,33 +3580,165 @@
       <c r="C50" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N50" s="5"/>
-      <c r="O50" s="5"/>
-      <c r="P50" s="5"/>
-      <c r="Q50" s="5"/>
-      <c r="R50" s="5"/>
-      <c r="S50" s="5"/>
-      <c r="T50" s="5"/>
+      <c r="D50" s="3">
+        <v>142</v>
+      </c>
+      <c r="E50" t="s">
+        <v>143</v>
+      </c>
+      <c r="F50" t="s">
+        <v>144</v>
+      </c>
+      <c r="G50" t="s">
+        <v>138</v>
+      </c>
+      <c r="H50" t="s">
+        <v>138</v>
+      </c>
+      <c r="I50" t="s">
+        <v>138</v>
+      </c>
+      <c r="J50" t="s">
+        <v>55</v>
+      </c>
+      <c r="K50" t="s">
+        <v>56</v>
+      </c>
+      <c r="L50" t="s">
+        <v>57</v>
+      </c>
+      <c r="M50" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="N50" s="5">
+        <v>20</v>
+      </c>
+      <c r="O50" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="P50" s="5">
+        <v>17.25</v>
+      </c>
+      <c r="Q50" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="R50" s="5">
+        <v>17.149999999999999</v>
+      </c>
+      <c r="S50" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="T50" s="5">
+        <v>17</v>
+      </c>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.35">
       <c r="C51" s="2"/>
-      <c r="N51" s="5"/>
-      <c r="O51" s="5"/>
-      <c r="P51" s="5"/>
-      <c r="Q51" s="5"/>
-      <c r="R51" s="5"/>
-      <c r="S51" s="5"/>
-      <c r="T51" s="5"/>
+      <c r="D51" s="3">
+        <v>142</v>
+      </c>
+      <c r="E51" t="s">
+        <v>143</v>
+      </c>
+      <c r="F51" t="s">
+        <v>88</v>
+      </c>
+      <c r="G51" t="s">
+        <v>88</v>
+      </c>
+      <c r="H51" t="s">
+        <v>88</v>
+      </c>
+      <c r="I51" t="s">
+        <v>88</v>
+      </c>
+      <c r="J51" t="s">
+        <v>60</v>
+      </c>
+      <c r="K51" t="s">
+        <v>56</v>
+      </c>
+      <c r="L51" t="s">
+        <v>57</v>
+      </c>
+      <c r="M51" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="N51" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="O51" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="P51" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q51" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="R51" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="S51" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="T51" s="5">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.35">
       <c r="C52" s="2"/>
-      <c r="N52" s="5"/>
-      <c r="O52" s="5"/>
-      <c r="P52" s="5"/>
-      <c r="Q52" s="5"/>
-      <c r="R52" s="5"/>
-      <c r="S52" s="5"/>
-      <c r="T52" s="5"/>
+      <c r="D52" s="3">
+        <v>142</v>
+      </c>
+      <c r="E52" t="s">
+        <v>143</v>
+      </c>
+      <c r="F52" t="s">
+        <v>58</v>
+      </c>
+      <c r="G52" t="s">
+        <v>58</v>
+      </c>
+      <c r="H52" t="s">
+        <v>58</v>
+      </c>
+      <c r="I52" t="s">
+        <v>58</v>
+      </c>
+      <c r="J52" t="s">
+        <v>64</v>
+      </c>
+      <c r="K52" t="s">
+        <v>56</v>
+      </c>
+      <c r="L52" t="s">
+        <v>57</v>
+      </c>
+      <c r="M52" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="N52" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="O52" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="P52" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="Q52" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="R52" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="S52" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="T52" s="5">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A53">
@@ -2783,33 +3750,165 @@
       <c r="C53" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="N53" s="5"/>
-      <c r="O53" s="5"/>
-      <c r="P53" s="5"/>
-      <c r="Q53" s="5"/>
-      <c r="R53" s="5"/>
-      <c r="S53" s="5"/>
-      <c r="T53" s="5"/>
+      <c r="D53" s="3">
+        <v>286</v>
+      </c>
+      <c r="E53" t="s">
+        <v>147</v>
+      </c>
+      <c r="F53" t="s">
+        <v>148</v>
+      </c>
+      <c r="G53" t="s">
+        <v>149</v>
+      </c>
+      <c r="H53" t="s">
+        <v>144</v>
+      </c>
+      <c r="I53" t="s">
+        <v>138</v>
+      </c>
+      <c r="J53" t="s">
+        <v>55</v>
+      </c>
+      <c r="K53" t="s">
+        <v>56</v>
+      </c>
+      <c r="L53" t="s">
+        <v>57</v>
+      </c>
+      <c r="M53" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="N53" s="5">
+        <v>16.75</v>
+      </c>
+      <c r="O53" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="P53" s="5">
+        <v>16.5</v>
+      </c>
+      <c r="Q53" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="R53" s="5">
+        <v>16.25</v>
+      </c>
+      <c r="S53" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="T53" s="5">
+        <v>16</v>
+      </c>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.35">
       <c r="C54" s="2"/>
-      <c r="N54" s="5"/>
-      <c r="O54" s="5"/>
-      <c r="P54" s="5"/>
-      <c r="Q54" s="5"/>
-      <c r="R54" s="5"/>
-      <c r="S54" s="5"/>
-      <c r="T54" s="5"/>
+      <c r="D54" s="3">
+        <v>286</v>
+      </c>
+      <c r="E54" t="s">
+        <v>147</v>
+      </c>
+      <c r="F54" t="s">
+        <v>116</v>
+      </c>
+      <c r="G54" t="s">
+        <v>150</v>
+      </c>
+      <c r="H54" t="s">
+        <v>116</v>
+      </c>
+      <c r="I54" t="s">
+        <v>117</v>
+      </c>
+      <c r="J54" t="s">
+        <v>60</v>
+      </c>
+      <c r="K54" t="s">
+        <v>56</v>
+      </c>
+      <c r="L54" t="s">
+        <v>57</v>
+      </c>
+      <c r="M54" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="N54" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="O54" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="P54" s="5">
+        <v>2.35</v>
+      </c>
+      <c r="Q54" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="R54" s="5">
+        <v>2.25</v>
+      </c>
+      <c r="S54" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="T54" s="5">
+        <v>2</v>
+      </c>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.35">
       <c r="C55" s="2"/>
-      <c r="N55" s="5"/>
-      <c r="O55" s="5"/>
-      <c r="P55" s="5"/>
-      <c r="Q55" s="5"/>
-      <c r="R55" s="5"/>
-      <c r="S55" s="5"/>
-      <c r="T55" s="5"/>
+      <c r="D55" s="3">
+        <v>286</v>
+      </c>
+      <c r="E55" t="s">
+        <v>147</v>
+      </c>
+      <c r="F55" t="s">
+        <v>151</v>
+      </c>
+      <c r="G55" t="s">
+        <v>152</v>
+      </c>
+      <c r="H55" t="s">
+        <v>78</v>
+      </c>
+      <c r="I55" t="s">
+        <v>153</v>
+      </c>
+      <c r="J55" t="s">
+        <v>64</v>
+      </c>
+      <c r="K55" t="s">
+        <v>56</v>
+      </c>
+      <c r="L55" t="s">
+        <v>57</v>
+      </c>
+      <c r="M55" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="N55" s="5">
+        <v>1.75</v>
+      </c>
+      <c r="O55" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="P55" s="5">
+        <v>1.6</v>
+      </c>
+      <c r="Q55" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="R55" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="S55" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="T55" s="5">
+        <v>1.25</v>
+      </c>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A56">
@@ -2821,33 +3920,165 @@
       <c r="C56" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="N56" s="5"/>
-      <c r="O56" s="5"/>
-      <c r="P56" s="5"/>
-      <c r="Q56" s="5"/>
-      <c r="R56" s="5"/>
-      <c r="S56" s="5"/>
-      <c r="T56" s="5"/>
+      <c r="D56" s="3">
+        <v>240</v>
+      </c>
+      <c r="E56" t="s">
+        <v>155</v>
+      </c>
+      <c r="F56" t="s">
+        <v>93</v>
+      </c>
+      <c r="G56" t="s">
+        <v>156</v>
+      </c>
+      <c r="H56" t="s">
+        <v>156</v>
+      </c>
+      <c r="I56" t="s">
+        <v>157</v>
+      </c>
+      <c r="J56" t="s">
+        <v>55</v>
+      </c>
+      <c r="K56" t="s">
+        <v>56</v>
+      </c>
+      <c r="L56" t="s">
+        <v>57</v>
+      </c>
+      <c r="M56" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="N56" s="5">
+        <v>15.5</v>
+      </c>
+      <c r="O56" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="P56" s="5">
+        <v>15.5</v>
+      </c>
+      <c r="Q56" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="R56" s="5">
+        <v>15.5</v>
+      </c>
+      <c r="S56" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="T56" s="5">
+        <v>14.7</v>
+      </c>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.35">
       <c r="C57" s="2"/>
-      <c r="N57" s="5"/>
-      <c r="O57" s="5"/>
-      <c r="P57" s="5"/>
-      <c r="Q57" s="5"/>
-      <c r="R57" s="5"/>
-      <c r="S57" s="5"/>
-      <c r="T57" s="5"/>
+      <c r="D57" s="3">
+        <v>240</v>
+      </c>
+      <c r="E57" t="s">
+        <v>155</v>
+      </c>
+      <c r="F57" t="s">
+        <v>78</v>
+      </c>
+      <c r="G57" t="s">
+        <v>158</v>
+      </c>
+      <c r="H57" t="s">
+        <v>158</v>
+      </c>
+      <c r="I57" t="s">
+        <v>61</v>
+      </c>
+      <c r="J57" t="s">
+        <v>60</v>
+      </c>
+      <c r="K57" t="s">
+        <v>56</v>
+      </c>
+      <c r="L57" t="s">
+        <v>57</v>
+      </c>
+      <c r="M57" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="N57" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="O57" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="P57" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="Q57" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="R57" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="S57" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="T57" s="5">
+        <v>0.35</v>
+      </c>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.35">
       <c r="C58" s="2"/>
-      <c r="N58" s="5"/>
-      <c r="O58" s="5"/>
-      <c r="P58" s="5"/>
-      <c r="Q58" s="5"/>
-      <c r="R58" s="5"/>
-      <c r="S58" s="5"/>
-      <c r="T58" s="5"/>
+      <c r="D58" s="3">
+        <v>240</v>
+      </c>
+      <c r="E58" t="s">
+        <v>155</v>
+      </c>
+      <c r="F58" t="s">
+        <v>101</v>
+      </c>
+      <c r="G58" t="s">
+        <v>62</v>
+      </c>
+      <c r="H58" t="s">
+        <v>62</v>
+      </c>
+      <c r="I58" t="s">
+        <v>65</v>
+      </c>
+      <c r="J58" t="s">
+        <v>64</v>
+      </c>
+      <c r="K58" t="s">
+        <v>56</v>
+      </c>
+      <c r="L58" t="s">
+        <v>57</v>
+      </c>
+      <c r="M58" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="N58" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="O58" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="P58" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="Q58" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="R58" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="S58" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="T58" s="5">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A59">
@@ -2859,13 +4090,147 @@
       <c r="C59" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="N59" s="5"/>
+      <c r="D59" s="3">
+        <v>305</v>
+      </c>
+      <c r="E59" t="s">
+        <v>159</v>
+      </c>
+      <c r="F59" t="s">
+        <v>67</v>
+      </c>
+      <c r="G59" t="s">
+        <v>54</v>
+      </c>
+      <c r="H59" t="s">
+        <v>125</v>
+      </c>
+      <c r="I59" t="s">
+        <v>125</v>
+      </c>
+      <c r="J59" t="s">
+        <v>55</v>
+      </c>
+      <c r="K59" t="s">
+        <v>56</v>
+      </c>
+      <c r="L59" t="s">
+        <v>57</v>
+      </c>
+      <c r="M59" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="N59" s="5">
+        <v>14</v>
+      </c>
       <c r="O59" s="5"/>
       <c r="P59" s="5"/>
-      <c r="Q59" s="5"/>
-      <c r="R59" s="5"/>
-      <c r="S59" s="5"/>
-      <c r="T59" s="5"/>
+      <c r="Q59" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="R59" s="5">
+        <v>14.75</v>
+      </c>
+      <c r="S59" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="T59" s="5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="D60" s="3">
+        <v>305</v>
+      </c>
+      <c r="E60" t="s">
+        <v>159</v>
+      </c>
+      <c r="F60" t="s">
+        <v>78</v>
+      </c>
+      <c r="G60" t="s">
+        <v>54</v>
+      </c>
+      <c r="H60" t="s">
+        <v>80</v>
+      </c>
+      <c r="I60" t="s">
+        <v>88</v>
+      </c>
+      <c r="J60" t="s">
+        <v>60</v>
+      </c>
+      <c r="K60" t="s">
+        <v>56</v>
+      </c>
+      <c r="L60" t="s">
+        <v>57</v>
+      </c>
+      <c r="M60" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="N60" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="Q60" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="R60" s="5">
+        <v>1</v>
+      </c>
+      <c r="S60" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="T60" s="5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="D61" s="3">
+        <v>305</v>
+      </c>
+      <c r="E61" t="s">
+        <v>159</v>
+      </c>
+      <c r="F61" t="s">
+        <v>88</v>
+      </c>
+      <c r="G61" t="s">
+        <v>54</v>
+      </c>
+      <c r="H61" t="s">
+        <v>88</v>
+      </c>
+      <c r="I61" t="s">
+        <v>88</v>
+      </c>
+      <c r="J61" t="s">
+        <v>64</v>
+      </c>
+      <c r="K61" t="s">
+        <v>56</v>
+      </c>
+      <c r="L61" t="s">
+        <v>57</v>
+      </c>
+      <c r="M61" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="N61" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q61" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="R61" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="S61" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="T61" s="5">
+        <v>0.5</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2997,8 +4362,105 @@
     <hyperlink ref="O31" r:id="rId126"/>
     <hyperlink ref="Q31" r:id="rId127"/>
     <hyperlink ref="S31" r:id="rId128"/>
+    <hyperlink ref="M32" r:id="rId129"/>
+    <hyperlink ref="Q32" r:id="rId130"/>
+    <hyperlink ref="S32" r:id="rId131"/>
+    <hyperlink ref="S33" r:id="rId132"/>
+    <hyperlink ref="S34" r:id="rId133"/>
+    <hyperlink ref="Q34" r:id="rId134"/>
+    <hyperlink ref="Q33" r:id="rId135"/>
+    <hyperlink ref="M33" r:id="rId136"/>
+    <hyperlink ref="M34" r:id="rId137"/>
+    <hyperlink ref="Q35" r:id="rId138"/>
+    <hyperlink ref="S35" r:id="rId139"/>
+    <hyperlink ref="S36" r:id="rId140"/>
+    <hyperlink ref="Q36" r:id="rId141"/>
+    <hyperlink ref="Q37" r:id="rId142"/>
+    <hyperlink ref="S37" r:id="rId143"/>
+    <hyperlink ref="Q39" r:id="rId144"/>
+    <hyperlink ref="Q40" r:id="rId145"/>
+    <hyperlink ref="S39" r:id="rId146"/>
+    <hyperlink ref="Q38" r:id="rId147"/>
+    <hyperlink ref="M38" r:id="rId148"/>
+    <hyperlink ref="M39" r:id="rId149"/>
+    <hyperlink ref="M40" r:id="rId150"/>
+    <hyperlink ref="M42" r:id="rId151"/>
+    <hyperlink ref="Q42" r:id="rId152"/>
+    <hyperlink ref="S42" r:id="rId153"/>
+    <hyperlink ref="M41" r:id="rId154"/>
+    <hyperlink ref="Q41" r:id="rId155"/>
+    <hyperlink ref="S41" r:id="rId156"/>
+    <hyperlink ref="S43" r:id="rId157"/>
+    <hyperlink ref="Q43" r:id="rId158"/>
+    <hyperlink ref="M43" r:id="rId159"/>
+    <hyperlink ref="S44" r:id="rId160" location="ft2"/>
+    <hyperlink ref="M44" r:id="rId161"/>
+    <hyperlink ref="M45" r:id="rId162"/>
+    <hyperlink ref="M46" r:id="rId163"/>
+    <hyperlink ref="Q44" r:id="rId164"/>
+    <hyperlink ref="Q45" r:id="rId165"/>
+    <hyperlink ref="Q46" r:id="rId166"/>
+    <hyperlink ref="S45" r:id="rId167"/>
+    <hyperlink ref="S46" r:id="rId168"/>
+    <hyperlink ref="S47" r:id="rId169"/>
+    <hyperlink ref="Q47" r:id="rId170"/>
+    <hyperlink ref="M47" r:id="rId171"/>
+    <hyperlink ref="O47" r:id="rId172"/>
+    <hyperlink ref="S49" r:id="rId173"/>
+    <hyperlink ref="Q49" r:id="rId174"/>
+    <hyperlink ref="O49" r:id="rId175"/>
+    <hyperlink ref="M49" r:id="rId176"/>
+    <hyperlink ref="M48" r:id="rId177"/>
+    <hyperlink ref="O48" r:id="rId178"/>
+    <hyperlink ref="Q48" r:id="rId179"/>
+    <hyperlink ref="S48" r:id="rId180"/>
+    <hyperlink ref="S50" r:id="rId181"/>
+    <hyperlink ref="Q50" r:id="rId182"/>
+    <hyperlink ref="O50" r:id="rId183"/>
+    <hyperlink ref="M50" r:id="rId184"/>
+    <hyperlink ref="M51" r:id="rId185"/>
+    <hyperlink ref="M52" r:id="rId186"/>
+    <hyperlink ref="O51" r:id="rId187"/>
+    <hyperlink ref="O52" r:id="rId188"/>
+    <hyperlink ref="Q51" r:id="rId189"/>
+    <hyperlink ref="Q52" r:id="rId190"/>
+    <hyperlink ref="S51" r:id="rId191"/>
+    <hyperlink ref="S52" r:id="rId192"/>
+    <hyperlink ref="M53" r:id="rId193"/>
+    <hyperlink ref="M54" r:id="rId194"/>
+    <hyperlink ref="M55" r:id="rId195"/>
+    <hyperlink ref="O53" r:id="rId196"/>
+    <hyperlink ref="O54" r:id="rId197"/>
+    <hyperlink ref="O55" r:id="rId198"/>
+    <hyperlink ref="Q53" r:id="rId199"/>
+    <hyperlink ref="Q54" r:id="rId200"/>
+    <hyperlink ref="Q55" r:id="rId201"/>
+    <hyperlink ref="S53" r:id="rId202"/>
+    <hyperlink ref="S54" r:id="rId203"/>
+    <hyperlink ref="S55" r:id="rId204"/>
+    <hyperlink ref="S56" r:id="rId205"/>
+    <hyperlink ref="S57" r:id="rId206"/>
+    <hyperlink ref="S58" r:id="rId207"/>
+    <hyperlink ref="Q58" r:id="rId208"/>
+    <hyperlink ref="Q57" r:id="rId209"/>
+    <hyperlink ref="Q56" r:id="rId210"/>
+    <hyperlink ref="O56" r:id="rId211"/>
+    <hyperlink ref="O57" r:id="rId212"/>
+    <hyperlink ref="O58" r:id="rId213"/>
+    <hyperlink ref="M56" r:id="rId214"/>
+    <hyperlink ref="M57" r:id="rId215"/>
+    <hyperlink ref="M58" r:id="rId216"/>
+    <hyperlink ref="S59" r:id="rId217" location="/"/>
+    <hyperlink ref="M59" r:id="rId218" location="/"/>
+    <hyperlink ref="Q59" r:id="rId219" location="/"/>
+    <hyperlink ref="M60" r:id="rId220" location="/"/>
+    <hyperlink ref="M61" r:id="rId221" location="/"/>
+    <hyperlink ref="Q60" r:id="rId222" location="/"/>
+    <hyperlink ref="Q61" r:id="rId223" location="/"/>
+    <hyperlink ref="S60" r:id="rId224" location="/"/>
+    <hyperlink ref="S61" r:id="rId225" location="/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId129"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId226"/>
 </worksheet>
 </file>